--- a/数据整理/stocks/A股/深证主板/002743-富煌钢构.xlsx
+++ b/数据整理/stocks/A股/深证主板/002743-富煌钢构.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -659,7 +660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +671,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -690,13 +711,293 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>013393</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013394</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>31.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>31.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002743-富煌钢构.xlsx
+++ b/数据整理/stocks/A股/深证主板/002743-富煌钢构.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -944,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,17 +956,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -975,14 +996,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.33</v>
+          <t>013385</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银优势价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5728</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -991,13 +1034,347 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>013393</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004685</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金元顺安元启灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013386</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银优势价值混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013394</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002743-富煌钢构.xlsx
+++ b/数据整理/stocks/A股/深证主板/002743-富煌钢构.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003456</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>信达澳银新目标灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>61.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0425</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>512780</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发中证京津冀协同发展主题ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.04</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="4">
@@ -580,74 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>164811</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>164825</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -656,6 +532,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013385</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银优势价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5728</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013393</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004685</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金元顺安元启灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013386</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银优势价值混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013394</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -939,13 +1175,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -996,36 +1232,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>013385</t>
+          <t>003456</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信达澳银优势价值混合A</t>
+          <t>信达澳银新目标灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.32</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.64</t>
+          <t>61.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5728</t>
+          <t>0.0425</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1034,36 +1270,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013393</t>
+          <t>512780</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信达澳银价值精选混合A</t>
+          <t>广发中证京津冀协同发展主题ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>99.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1582</t>
+          <t>0.0047</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1072,36 +1308,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004685</t>
+          <t>164811</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金元顺安元启灵活配置混合</t>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.44</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>75.65</t>
+          <t>94.22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1008</t>
+          <t>0.0045</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1110,272 +1346,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>013386</t>
+          <t>164825</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>信达澳银优势价值混合C</t>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.64</t>
+          <t>94.22</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0588</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>013394</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>信达澳银价值精选混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0157</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>164811</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>95.40</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
         <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>512780</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发中证京津冀协同发展主题ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>98.51</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>164825</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>95.40</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002743-富煌钢构.xlsx
+++ b/数据整理/stocks/A股/深证主板/002743-富煌钢构.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.33</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -532,6 +549,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013385</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信澳优势价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4988</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004685</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金元顺安元启灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013393</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信澳价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013386</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信澳优势价值混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013394</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信澳价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -891,7 +1230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1175,7 +1514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002743-富煌钢构.xlsx
+++ b/数据整理/stocks/A股/深证主板/002743-富煌钢构.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.82</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.33</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -549,6 +566,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013385</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信澳优势价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4981</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013393</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信澳价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013386</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信澳优势价值混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013394</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信澳价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -870,7 +1095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1230,7 +1455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1514,7 +1739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
